--- a/list_stim_congruent_practice.xlsx
+++ b/list_stim_congruent_practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/web/Pokemon Task web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/Pokemon Task web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FE4A7E61-0E5F-4819-98FA-CCE8C316C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F18117BB-9212-479D-A3C5-93164044B58F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FE4A7E61-0E5F-4819-98FA-CCE8C316C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A2254E-558E-4C42-B8C9-B7707EB60902}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,28 +211,28 @@
     <t>[0.35,0]</t>
   </si>
   <si>
-    <t>stimuli/1.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/5.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/7.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/9.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/14.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/15.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/19.bmp</t>
-  </si>
-  <si>
-    <t>stimuli/20.bmp</t>
+    <t>stimuli/1.png</t>
+  </si>
+  <si>
+    <t>stimuli/5.png</t>
+  </si>
+  <si>
+    <t>stimuli/7.png</t>
+  </si>
+  <si>
+    <t>stimuli/9.png</t>
+  </si>
+  <si>
+    <t>stimuli/14.png</t>
+  </si>
+  <si>
+    <t>stimuli/15.png</t>
+  </si>
+  <si>
+    <t>stimuli/19.png</t>
+  </si>
+  <si>
+    <t>stimuli/20.png</t>
   </si>
 </sst>
 </file>
@@ -286,10 +286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,7 +653,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
